--- a/sophia's budget calculator data+visualization.xlsx
+++ b/sophia's budget calculator data+visualization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\BudgetCalculator-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB0DC45-771A-4117-B3D9-8B3828844758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2CF444-A87F-4A7B-81D3-6D5DE9A20F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,6 @@
     <sheet name="Dashboard" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Dashboard!$B$8:$B$17</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Dashboard!$C$7</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Dashboard!$C$8:$C$17</definedName>
     <definedName name="Slicer_Category">#N/A</definedName>
     <definedName name="Slicer_Feb">#N/A</definedName>
     <definedName name="Slicer_Month">#N/A</definedName>
@@ -278,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -291,9 +288,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -306,19 +300,20 @@
     </xf>
     <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -326,22 +321,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[$₦-470]#,##0.00"/>
       <fill>
@@ -360,42 +339,18 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
         <patternFill>
           <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.39997558519241921"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
         <patternFill>
           <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.39997558519241921"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -474,7 +429,7 @@
         <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill>
           <fgColor indexed="64"/>
           <bgColor theme="8" tint="0.39997558519241921"/>
         </patternFill>
@@ -494,7 +449,7 @@
         <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill>
           <fgColor indexed="64"/>
           <bgColor theme="8" tint="0.39997558519241921"/>
         </patternFill>
@@ -617,6 +572,46 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -4330,202 +4325,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3073" name="Text Box 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14396E9F-93C7-3877-48A3-9D8757A77562}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="12192000" y="1828800"/>
-          <a:ext cx="685800" cy="548640"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-            </a:rPr>
-            <a:t>The Category slicer shows the list of categories linked to the budget table, and clicking on any of them would make the budget table shows only the entries of the category selected.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-            </a:rPr>
-            <a:t>The Month slicer shows the list of months that are present in the budget table, and clicking on one of them would make the budget table show only the entry of the month selected.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Now we are done with the Budget Calculator Sheet. Let's move to the Dashboard Sheet.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3074" name="Text Box 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED06DF46-3537-8273-646E-CA5D281FD6EC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="12192000" y="1828800"/>
-          <a:ext cx="685800" cy="548640"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-            </a:rPr>
-            <a:t>The Category slicer shows the list of categories linked to the budget table, and clicking on any of them would make the budget table shows only the entries of the category selected.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-            </a:rPr>
-            <a:t>The Month slicer shows the list of months that are present in the budget table, and clicking on one of them would make the budget table show only the entry of the month selected.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Now we are done with the Budget Calculator Sheet. Let's move to the Dashboard Sheet.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>62</xdr:col>
       <xdr:colOff>320040</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -5980,8 +5779,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Category 2">
@@ -6004,7 +5803,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -6141,8 +5940,8 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Feb">
@@ -6165,7 +5964,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -6289,24 +6088,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3B49886A-ABD5-45E8-9BD5-BE4732FEB955}" name="budget_table" displayName="budget_table" ref="A1:F56" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3B49886A-ABD5-45E8-9BD5-BE4732FEB955}" name="budget_table" displayName="budget_table" ref="A1:F56" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:F56" xr:uid="{3B49886A-ABD5-45E8-9BD5-BE4732FEB955}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0ED7F93D-51C8-4C29-8F2E-B64AD84754CD}" name="Month" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{0ED7F93D-51C8-4C29-8F2E-B64AD84754CD}" name="Month" dataDxfId="14">
       <calculatedColumnFormula>TEXT(budget_table[[#This Row],[Date]], "mmm")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{E8102F59-9FD6-425C-A71A-58695656BF63}" name="Date" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{B5FF10B1-A693-49AC-AD80-C717AC513EC5}" name="Category" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{7A52F96C-ED8D-42E8-B620-962BF8308A02}" name="Debit" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{1CF766AD-9759-43D3-9DC5-482E4A2DF757}" name="Income" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{E33F8B0C-435F-43C1-A44B-6F2378E59C53}" name="Balance" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{E8102F59-9FD6-425C-A71A-58695656BF63}" name="Date" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{B5FF10B1-A693-49AC-AD80-C717AC513EC5}" name="Category" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{7A52F96C-ED8D-42E8-B620-962BF8308A02}" name="Debit" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{1CF766AD-9759-43D3-9DC5-482E4A2DF757}" name="Income" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{E33F8B0C-435F-43C1-A44B-6F2378E59C53}" name="Balance" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D807C2D3-59A6-4859-9B8E-7039CD5139A9}" name="Average_table" displayName="Average_table" ref="H1:J14" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D807C2D3-59A6-4859-9B8E-7039CD5139A9}" name="Average_table" displayName="Average_table" ref="H1:J14" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="H1:J14" xr:uid="{D807C2D3-59A6-4859-9B8E-7039CD5139A9}">
     <filterColumn colId="0">
       <customFilters>
@@ -6315,20 +6114,20 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{09F7C087-D024-4DAE-B665-FD92710FEAA4}" name="CATEGORY" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{38B81D70-610A-48EE-BE11-29724C2A746A}" name="INCOME/DEBIT" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{CE95018F-0263-4900-892B-25AADC59AD6C}" name="Average" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{09F7C087-D024-4DAE-B665-FD92710FEAA4}" name="CATEGORY" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{38B81D70-610A-48EE-BE11-29724C2A746A}" name="INCOME/DEBIT" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{CE95018F-0263-4900-892B-25AADC59AD6C}" name="Average" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{727123DD-D4D1-481F-A6B8-31AF2ADCBD6F}" name="visualization_table" displayName="visualization_table" ref="B7:C17" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{727123DD-D4D1-481F-A6B8-31AF2ADCBD6F}" name="visualization_table" displayName="visualization_table" ref="B7:C17" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="B7:C17" xr:uid="{727123DD-D4D1-481F-A6B8-31AF2ADCBD6F}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{49CF9A7D-83D0-4852-9E3B-FD5D4CBC0D60}" name="JAN" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{1A216962-9960-42A2-A859-D75C40FFEF89}" name="TOTAL" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{49CF9A7D-83D0-4852-9E3B-FD5D4CBC0D60}" name="JAN" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{1A216962-9960-42A2-A859-D75C40FFEF89}" name="TOTAL" dataDxfId="0">
       <calculatedColumnFormula>SUMIFS(budget_table[Debit],budget_table[Month],Dashboard!$B$7,budget_table[Category],Dashboard!B8)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6669,100 +6468,100 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2C8C45-DB35-4117-90BB-5BD01DD90EEA}">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="CD1" workbookViewId="0">
       <selection activeCell="CN19" sqref="CN19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="25"/>
+    <col min="1" max="16384" width="8.88671875" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6826,19 +6625,19 @@
       <c r="J1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>44562</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -6850,29 +6649,29 @@
       <c r="F2" s="6">
         <v>1200000</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="13">
         <f>AVERAGEIF(budget_table[Category],H2,budget_table[Income])</f>
         <v>1200000</v>
       </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>44563</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -6885,29 +6684,29 @@
         <f>SUM(F2+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>1180000</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="13">
         <f>AVERAGEIF(budget_table[Category],H3,budget_table[Debit])</f>
         <v>37825</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>44564</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -6920,29 +6719,29 @@
         <f>SUM(F3+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>1175000</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="13">
         <f>AVERAGEIF(budget_table[Category],H4,budget_table[Debit])</f>
         <v>3043.75</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>44565</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -6955,29 +6754,29 @@
         <f>SUM(F4+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>1174350</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="13">
         <f>AVERAGEIF(budget_table[Category],H5,budget_table[Debit])</f>
         <v>10000</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>44565</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -6990,29 +6789,29 @@
         <f>SUM(F5+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>1171850</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="13">
         <f>AVERAGEIF(budget_table[Category],H6,budget_table[Debit])</f>
         <v>10823.076923076924</v>
       </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>44567</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -7025,29 +6824,29 @@
         <f>SUM(F6+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>1168400</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="13">
         <f>AVERAGEIF(budget_table[Category],H7,budget_table[Debit])</f>
         <v>97400</v>
       </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>44576</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -7060,29 +6859,29 @@
         <f>SUM(F7+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>868400</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="13">
         <f>AVERAGEIF(budget_table[Category],H8,budget_table[Debit])</f>
         <v>300000</v>
       </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>44577</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -7095,29 +6894,29 @@
         <f>SUM(F8+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>861900</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="13">
         <f>AVERAGEIF(budget_table[Category],H9,budget_table[Debit])</f>
         <v>78250</v>
       </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>44578</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -7130,29 +6929,29 @@
         <f>SUM(F9+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>849900</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="13">
         <f>AVERAGEIF(budget_table[Category],H10,budget_table[Debit])</f>
         <v>8000</v>
       </c>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>44579</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -7165,29 +6964,29 @@
         <f>SUM(F10+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>842400</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="13">
         <f>AVERAGEIF(budget_table[Category],H11,budget_table[Debit])</f>
         <v>47400</v>
       </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
     </row>
     <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>44580</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -7200,19 +6999,19 @@
         <f>SUM(F11+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>837400</v>
       </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>44581</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -7225,19 +7024,19 @@
         <f>SUM(F12+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>834200</v>
       </c>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>44582</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -7250,19 +7049,19 @@
         <f>SUM(F13+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>829400</v>
       </c>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>44582</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -7275,19 +7074,19 @@
         <f>SUM(F14+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>827400</v>
       </c>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>44584</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -7300,19 +7099,19 @@
         <f>SUM(F15+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>797400</v>
       </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>44587</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -7325,19 +7124,19 @@
         <f>SUM(F16+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>793400</v>
       </c>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
     </row>
     <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <v>44588</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -7350,16 +7149,16 @@
         <f>SUM(F17+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>788400</v>
       </c>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="10">
         <v>44589</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -7372,16 +7171,16 @@
         <f>SUM(F18+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>787200</v>
       </c>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="10">
         <v>44590</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -7400,7 +7199,7 @@
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="10">
         <v>44591</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -7419,7 +7218,7 @@
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Feb</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="10">
         <v>44593</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -7438,7 +7237,7 @@
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Feb</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="10">
         <v>44594</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -7457,7 +7256,7 @@
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Feb</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="10">
         <v>44594</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -7476,7 +7275,7 @@
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Feb</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="10">
         <v>44594</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -7495,7 +7294,7 @@
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Feb</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="10">
         <v>44597</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -7514,7 +7313,7 @@
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Feb</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="10">
         <v>44598</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -7533,7 +7332,7 @@
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Feb</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="10">
         <v>44600</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -7552,7 +7351,7 @@
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Feb</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="10">
         <v>44600</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -7571,7 +7370,7 @@
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Feb</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="10">
         <v>44600</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -7590,7 +7389,7 @@
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Feb</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="10">
         <v>44600</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -7609,7 +7408,7 @@
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Feb</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="10">
         <v>44602</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -7628,7 +7427,7 @@
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Feb</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="10">
         <v>44603</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -7647,7 +7446,7 @@
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Feb</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="10">
         <v>44604</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -7666,7 +7465,7 @@
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Feb</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="10">
         <v>44606</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -7685,7 +7484,7 @@
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Feb</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="10">
         <v>44606</v>
       </c>
       <c r="C36" s="5" t="s">
@@ -7704,7 +7503,7 @@
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Feb</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="10">
         <v>44609</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -7723,7 +7522,7 @@
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Feb</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="10">
         <v>44611</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -7742,7 +7541,7 @@
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Feb</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="10">
         <v>44612</v>
       </c>
       <c r="C39" s="5" t="s">
@@ -7761,7 +7560,7 @@
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Feb</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="10">
         <v>44615</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -7780,7 +7579,7 @@
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Feb</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="10">
         <v>44617</v>
       </c>
       <c r="C41" s="5" t="s">
@@ -7799,7 +7598,7 @@
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Feb</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="10">
         <v>44617</v>
       </c>
       <c r="C42" s="5" t="s">
@@ -7818,7 +7617,7 @@
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Feb</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43" s="10">
         <v>44620</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -7837,7 +7636,7 @@
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Mar</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="10">
         <v>44621</v>
       </c>
       <c r="C44" s="5" t="s">
@@ -7856,7 +7655,7 @@
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Mar</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="10">
         <v>44631</v>
       </c>
       <c r="C45" s="5" t="s">
@@ -7875,7 +7674,7 @@
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Mar</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="10">
         <v>44635</v>
       </c>
       <c r="C46" s="5" t="s">
@@ -7894,7 +7693,7 @@
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Mar</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B47" s="10">
         <v>44635</v>
       </c>
       <c r="C47" s="5" t="s">
@@ -7913,7 +7712,7 @@
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="B48" s="11"/>
+      <c r="B48" s="10"/>
       <c r="F48" s="6">
         <f>SUM(F47+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>2169350</v>
@@ -7924,7 +7723,7 @@
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="B49" s="11"/>
+      <c r="B49" s="10"/>
       <c r="F49" s="6">
         <f>SUM(F48+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>2169350</v>
@@ -7955,7 +7754,7 @@
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="B52" s="11"/>
+      <c r="B52" s="10"/>
       <c r="F52" s="6">
         <f>SUM(F51+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>2169350</v>
@@ -7966,7 +7765,7 @@
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="B53" s="11"/>
+      <c r="B53" s="10"/>
       <c r="F53" s="6">
         <f>SUM(F52+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>2169350</v>
@@ -8053,1831 +7852,1831 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="21" t="s">
+      <c r="A1" s="25"/>
+      <c r="B1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="22"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="17"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="16"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="17"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="16"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="19">
         <f>SUMIFS(budget_table[Income], budget_table[Month], Dashboard!B7,budget_table[Category],Dashboard!B8)</f>
         <v>1200000</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="17"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="16"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="19">
         <f>SUMIFS(budget_table[Debit],budget_table[Month],Dashboard!$B$7,budget_table[Category],Dashboard!B9)</f>
         <v>20000</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="17"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="16"/>
     </row>
     <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="19">
         <f>SUMIFS(budget_table[Debit],budget_table[Month],Dashboard!$B$7,budget_table[Category],Dashboard!B10)</f>
         <v>15000</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="17"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="16"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="19">
         <f>SUMIFS(budget_table[Debit],budget_table[Month],Dashboard!$B$7,budget_table[Category],Dashboard!B11)</f>
         <v>22900</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="17"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="16"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="19">
         <f>SUMIFS(budget_table[Debit],budget_table[Month],Dashboard!$B$7,budget_table[Category],Dashboard!B12)</f>
         <v>188100</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="17"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="16"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="19">
         <f>SUMIFS(budget_table[Debit],budget_table[Month],Dashboard!$B$7,budget_table[Category],Dashboard!B13)</f>
         <v>300000</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="17"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="16"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="19">
         <f>SUMIFS(budget_table[Debit],budget_table[Month],Dashboard!$B$7,budget_table[Category],Dashboard!B14)</f>
         <v>6500</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="17"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="16"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="19">
         <f>SUMIFS(budget_table[Debit],budget_table[Month],Dashboard!$B$7,budget_table[Category],Dashboard!B15)</f>
         <v>12000</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="17"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="16"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="19">
         <f>SUMIFS(budget_table[Debit],budget_table[Month],Dashboard!$B$7,budget_table[Category],Dashboard!B16)</f>
         <v>4800</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="17"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="16"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="19">
         <f>SUMIFS(budget_table[Debit],budget_table[Month],Dashboard!$B$7,budget_table[Category],Dashboard!B17)</f>
         <v>3850</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="17"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="16"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="17"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="16"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="17"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="16"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="17"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="16"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="17"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="17"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="17"/>
-      <c r="U33" s="17"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="17"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="17"/>
-      <c r="U35" s="17"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
-      <c r="S36" s="17"/>
-      <c r="T36" s="17"/>
-      <c r="U36" s="17"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="16"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="17"/>
-      <c r="S37" s="17"/>
-      <c r="T37" s="17"/>
-      <c r="U37" s="17"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
-      <c r="S38" s="17"/>
-      <c r="T38" s="17"/>
-      <c r="U38" s="17"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="17"/>
-      <c r="S39" s="17"/>
-      <c r="T39" s="17"/>
-      <c r="U39" s="17"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="17"/>
-      <c r="S40" s="17"/>
-      <c r="T40" s="17"/>
-      <c r="U40" s="17"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="16"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
-      <c r="R41" s="17"/>
-      <c r="S41" s="17"/>
-      <c r="T41" s="17"/>
-      <c r="U41" s="17"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="16"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="17"/>
-      <c r="T42" s="17"/>
-      <c r="U42" s="17"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="17"/>
-      <c r="S43" s="17"/>
-      <c r="T43" s="17"/>
-      <c r="U43" s="17"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="16"/>
+      <c r="S43" s="16"/>
+      <c r="T43" s="16"/>
+      <c r="U43" s="16"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
-      <c r="R44" s="17"/>
-      <c r="S44" s="17"/>
-      <c r="T44" s="17"/>
-      <c r="U44" s="17"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="16"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="16"/>
+      <c r="U44" s="16"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
-      <c r="R45" s="17"/>
-      <c r="S45" s="17"/>
-      <c r="T45" s="17"/>
-      <c r="U45" s="17"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="16"/>
+      <c r="S45" s="16"/>
+      <c r="T45" s="16"/>
+      <c r="U45" s="16"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
-      <c r="R46" s="17"/>
-      <c r="S46" s="17"/>
-      <c r="T46" s="17"/>
-      <c r="U46" s="17"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="16"/>
+      <c r="R46" s="16"/>
+      <c r="S46" s="16"/>
+      <c r="T46" s="16"/>
+      <c r="U46" s="16"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
-      <c r="R47" s="17"/>
-      <c r="S47" s="17"/>
-      <c r="T47" s="17"/>
-      <c r="U47" s="17"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="16"/>
+      <c r="R47" s="16"/>
+      <c r="S47" s="16"/>
+      <c r="T47" s="16"/>
+      <c r="U47" s="16"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
-      <c r="R48" s="17"/>
-      <c r="S48" s="17"/>
-      <c r="T48" s="17"/>
-      <c r="U48" s="17"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="16"/>
+      <c r="R48" s="16"/>
+      <c r="S48" s="16"/>
+      <c r="T48" s="16"/>
+      <c r="U48" s="16"/>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
-      <c r="R49" s="17"/>
-      <c r="S49" s="17"/>
-      <c r="T49" s="17"/>
-      <c r="U49" s="17"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="16"/>
+      <c r="R49" s="16"/>
+      <c r="S49" s="16"/>
+      <c r="T49" s="16"/>
+      <c r="U49" s="16"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
-      <c r="R50" s="17"/>
-      <c r="S50" s="17"/>
-      <c r="T50" s="17"/>
-      <c r="U50" s="17"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="16"/>
+      <c r="Q50" s="16"/>
+      <c r="R50" s="16"/>
+      <c r="S50" s="16"/>
+      <c r="T50" s="16"/>
+      <c r="U50" s="16"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A51" s="17"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
-      <c r="R51" s="17"/>
-      <c r="S51" s="17"/>
-      <c r="T51" s="17"/>
-      <c r="U51" s="17"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="16"/>
+      <c r="R51" s="16"/>
+      <c r="S51" s="16"/>
+      <c r="T51" s="16"/>
+      <c r="U51" s="16"/>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
-      <c r="R52" s="17"/>
-      <c r="S52" s="17"/>
-      <c r="T52" s="17"/>
-      <c r="U52" s="17"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="16"/>
+      <c r="Q52" s="16"/>
+      <c r="R52" s="16"/>
+      <c r="S52" s="16"/>
+      <c r="T52" s="16"/>
+      <c r="U52" s="16"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
-      <c r="R53" s="17"/>
-      <c r="S53" s="17"/>
-      <c r="T53" s="17"/>
-      <c r="U53" s="17"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="16"/>
+      <c r="R53" s="16"/>
+      <c r="S53" s="16"/>
+      <c r="T53" s="16"/>
+      <c r="U53" s="16"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
-      <c r="R54" s="17"/>
-      <c r="S54" s="17"/>
-      <c r="T54" s="17"/>
-      <c r="U54" s="17"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="16"/>
+      <c r="P54" s="16"/>
+      <c r="Q54" s="16"/>
+      <c r="R54" s="16"/>
+      <c r="S54" s="16"/>
+      <c r="T54" s="16"/>
+      <c r="U54" s="16"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
-      <c r="R55" s="17"/>
-      <c r="S55" s="17"/>
-      <c r="T55" s="17"/>
-      <c r="U55" s="17"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="16"/>
+      <c r="R55" s="16"/>
+      <c r="S55" s="16"/>
+      <c r="T55" s="16"/>
+      <c r="U55" s="16"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
-      <c r="R56" s="17"/>
-      <c r="S56" s="17"/>
-      <c r="T56" s="17"/>
-      <c r="U56" s="17"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="16"/>
+      <c r="Q56" s="16"/>
+      <c r="R56" s="16"/>
+      <c r="S56" s="16"/>
+      <c r="T56" s="16"/>
+      <c r="U56" s="16"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A57" s="17"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
-      <c r="R57" s="17"/>
-      <c r="S57" s="17"/>
-      <c r="T57" s="17"/>
-      <c r="U57" s="17"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="16"/>
+      <c r="R57" s="16"/>
+      <c r="S57" s="16"/>
+      <c r="T57" s="16"/>
+      <c r="U57" s="16"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A58" s="17"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
-      <c r="R58" s="17"/>
-      <c r="S58" s="17"/>
-      <c r="T58" s="17"/>
-      <c r="U58" s="17"/>
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
+      <c r="P58" s="16"/>
+      <c r="Q58" s="16"/>
+      <c r="R58" s="16"/>
+      <c r="S58" s="16"/>
+      <c r="T58" s="16"/>
+      <c r="U58" s="16"/>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A59" s="17"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="17"/>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
-      <c r="R59" s="17"/>
-      <c r="S59" s="17"/>
-      <c r="T59" s="17"/>
-      <c r="U59" s="17"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="16"/>
+      <c r="P59" s="16"/>
+      <c r="Q59" s="16"/>
+      <c r="R59" s="16"/>
+      <c r="S59" s="16"/>
+      <c r="T59" s="16"/>
+      <c r="U59" s="16"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A60" s="17"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="17"/>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
-      <c r="R60" s="17"/>
-      <c r="S60" s="17"/>
-      <c r="T60" s="17"/>
-      <c r="U60" s="17"/>
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="16"/>
+      <c r="N60" s="16"/>
+      <c r="O60" s="16"/>
+      <c r="P60" s="16"/>
+      <c r="Q60" s="16"/>
+      <c r="R60" s="16"/>
+      <c r="S60" s="16"/>
+      <c r="T60" s="16"/>
+      <c r="U60" s="16"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A61" s="17"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="17"/>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
-      <c r="R61" s="17"/>
-      <c r="S61" s="17"/>
-      <c r="T61" s="17"/>
-      <c r="U61" s="17"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="16"/>
+      <c r="N61" s="16"/>
+      <c r="O61" s="16"/>
+      <c r="P61" s="16"/>
+      <c r="Q61" s="16"/>
+      <c r="R61" s="16"/>
+      <c r="S61" s="16"/>
+      <c r="T61" s="16"/>
+      <c r="U61" s="16"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A62" s="17"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="17"/>
-      <c r="K62" s="17"/>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
-      <c r="R62" s="17"/>
-      <c r="S62" s="17"/>
-      <c r="T62" s="17"/>
-      <c r="U62" s="17"/>
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="16"/>
+      <c r="N62" s="16"/>
+      <c r="O62" s="16"/>
+      <c r="P62" s="16"/>
+      <c r="Q62" s="16"/>
+      <c r="R62" s="16"/>
+      <c r="S62" s="16"/>
+      <c r="T62" s="16"/>
+      <c r="U62" s="16"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A63" s="17"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
-      <c r="K63" s="17"/>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
-      <c r="R63" s="17"/>
-      <c r="S63" s="17"/>
-      <c r="T63" s="17"/>
-      <c r="U63" s="17"/>
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="16"/>
+      <c r="O63" s="16"/>
+      <c r="P63" s="16"/>
+      <c r="Q63" s="16"/>
+      <c r="R63" s="16"/>
+      <c r="S63" s="16"/>
+      <c r="T63" s="16"/>
+      <c r="U63" s="16"/>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A64" s="17"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="17"/>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
-      <c r="R64" s="17"/>
-      <c r="S64" s="17"/>
-      <c r="T64" s="17"/>
-      <c r="U64" s="17"/>
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="16"/>
+      <c r="N64" s="16"/>
+      <c r="O64" s="16"/>
+      <c r="P64" s="16"/>
+      <c r="Q64" s="16"/>
+      <c r="R64" s="16"/>
+      <c r="S64" s="16"/>
+      <c r="T64" s="16"/>
+      <c r="U64" s="16"/>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A65" s="17"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="17"/>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
-      <c r="R65" s="17"/>
-      <c r="S65" s="17"/>
-      <c r="T65" s="17"/>
-      <c r="U65" s="17"/>
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="16"/>
+      <c r="M65" s="16"/>
+      <c r="N65" s="16"/>
+      <c r="O65" s="16"/>
+      <c r="P65" s="16"/>
+      <c r="Q65" s="16"/>
+      <c r="R65" s="16"/>
+      <c r="S65" s="16"/>
+      <c r="T65" s="16"/>
+      <c r="U65" s="16"/>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A66" s="17"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="17"/>
-      <c r="J66" s="17"/>
-      <c r="K66" s="17"/>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
-      <c r="R66" s="17"/>
-      <c r="S66" s="17"/>
-      <c r="T66" s="17"/>
-      <c r="U66" s="17"/>
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="16"/>
+      <c r="N66" s="16"/>
+      <c r="O66" s="16"/>
+      <c r="P66" s="16"/>
+      <c r="Q66" s="16"/>
+      <c r="R66" s="16"/>
+      <c r="S66" s="16"/>
+      <c r="T66" s="16"/>
+      <c r="U66" s="16"/>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A67" s="17"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="17"/>
-      <c r="J67" s="17"/>
-      <c r="K67" s="17"/>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
-      <c r="R67" s="17"/>
-      <c r="S67" s="17"/>
-      <c r="T67" s="17"/>
-      <c r="U67" s="17"/>
+      <c r="A67" s="16"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="16"/>
+      <c r="P67" s="16"/>
+      <c r="Q67" s="16"/>
+      <c r="R67" s="16"/>
+      <c r="S67" s="16"/>
+      <c r="T67" s="16"/>
+      <c r="U67" s="16"/>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A68" s="17"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="17"/>
-      <c r="J68" s="17"/>
-      <c r="K68" s="17"/>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
-      <c r="R68" s="17"/>
-      <c r="S68" s="17"/>
-      <c r="T68" s="17"/>
-      <c r="U68" s="17"/>
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="16"/>
+      <c r="N68" s="16"/>
+      <c r="O68" s="16"/>
+      <c r="P68" s="16"/>
+      <c r="Q68" s="16"/>
+      <c r="R68" s="16"/>
+      <c r="S68" s="16"/>
+      <c r="T68" s="16"/>
+      <c r="U68" s="16"/>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A69" s="17"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="17"/>
-      <c r="J69" s="17"/>
-      <c r="K69" s="17"/>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
-      <c r="R69" s="17"/>
-      <c r="S69" s="17"/>
-      <c r="T69" s="17"/>
-      <c r="U69" s="17"/>
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="16"/>
+      <c r="N69" s="16"/>
+      <c r="O69" s="16"/>
+      <c r="P69" s="16"/>
+      <c r="Q69" s="16"/>
+      <c r="R69" s="16"/>
+      <c r="S69" s="16"/>
+      <c r="T69" s="16"/>
+      <c r="U69" s="16"/>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A70" s="17"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="17"/>
-      <c r="J70" s="17"/>
-      <c r="K70" s="17"/>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
-      <c r="R70" s="17"/>
-      <c r="S70" s="17"/>
-      <c r="T70" s="17"/>
-      <c r="U70" s="17"/>
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="16"/>
+      <c r="M70" s="16"/>
+      <c r="N70" s="16"/>
+      <c r="O70" s="16"/>
+      <c r="P70" s="16"/>
+      <c r="Q70" s="16"/>
+      <c r="R70" s="16"/>
+      <c r="S70" s="16"/>
+      <c r="T70" s="16"/>
+      <c r="U70" s="16"/>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A71" s="17"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="17"/>
-      <c r="J71" s="17"/>
-      <c r="K71" s="17"/>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
-      <c r="R71" s="17"/>
-      <c r="S71" s="17"/>
-      <c r="T71" s="17"/>
-      <c r="U71" s="17"/>
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="16"/>
+      <c r="P71" s="16"/>
+      <c r="Q71" s="16"/>
+      <c r="R71" s="16"/>
+      <c r="S71" s="16"/>
+      <c r="T71" s="16"/>
+      <c r="U71" s="16"/>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A72" s="17"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="17"/>
-      <c r="J72" s="17"/>
-      <c r="K72" s="17"/>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
-      <c r="R72" s="17"/>
-      <c r="S72" s="17"/>
-      <c r="T72" s="17"/>
-      <c r="U72" s="17"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="16"/>
+      <c r="O72" s="16"/>
+      <c r="P72" s="16"/>
+      <c r="Q72" s="16"/>
+      <c r="R72" s="16"/>
+      <c r="S72" s="16"/>
+      <c r="T72" s="16"/>
+      <c r="U72" s="16"/>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A73" s="17"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
-      <c r="K73" s="17"/>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
-      <c r="R73" s="17"/>
-      <c r="S73" s="17"/>
-      <c r="T73" s="17"/>
-      <c r="U73" s="17"/>
+      <c r="A73" s="16"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="16"/>
+      <c r="O73" s="16"/>
+      <c r="P73" s="16"/>
+      <c r="Q73" s="16"/>
+      <c r="R73" s="16"/>
+      <c r="S73" s="16"/>
+      <c r="T73" s="16"/>
+      <c r="U73" s="16"/>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A74" s="17"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="17"/>
-      <c r="K74" s="17"/>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
-      <c r="R74" s="17"/>
-      <c r="S74" s="17"/>
-      <c r="T74" s="17"/>
-      <c r="U74" s="17"/>
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="16"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="16"/>
+      <c r="N74" s="16"/>
+      <c r="O74" s="16"/>
+      <c r="P74" s="16"/>
+      <c r="Q74" s="16"/>
+      <c r="R74" s="16"/>
+      <c r="S74" s="16"/>
+      <c r="T74" s="16"/>
+      <c r="U74" s="16"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A75" s="17"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="17"/>
-      <c r="K75" s="17"/>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
-      <c r="R75" s="17"/>
-      <c r="S75" s="17"/>
-      <c r="T75" s="17"/>
-      <c r="U75" s="17"/>
+      <c r="A75" s="16"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="16"/>
+      <c r="M75" s="16"/>
+      <c r="N75" s="16"/>
+      <c r="O75" s="16"/>
+      <c r="P75" s="16"/>
+      <c r="Q75" s="16"/>
+      <c r="R75" s="16"/>
+      <c r="S75" s="16"/>
+      <c r="T75" s="16"/>
+      <c r="U75" s="16"/>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A76" s="17"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="17"/>
-      <c r="J76" s="17"/>
-      <c r="K76" s="17"/>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
-      <c r="R76" s="17"/>
-      <c r="S76" s="17"/>
-      <c r="T76" s="17"/>
-      <c r="U76" s="17"/>
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="16"/>
+      <c r="M76" s="16"/>
+      <c r="N76" s="16"/>
+      <c r="O76" s="16"/>
+      <c r="P76" s="16"/>
+      <c r="Q76" s="16"/>
+      <c r="R76" s="16"/>
+      <c r="S76" s="16"/>
+      <c r="T76" s="16"/>
+      <c r="U76" s="16"/>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A77" s="17"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="17"/>
-      <c r="I77" s="17"/>
-      <c r="J77" s="17"/>
-      <c r="K77" s="17"/>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
-      <c r="R77" s="17"/>
-      <c r="S77" s="17"/>
-      <c r="T77" s="17"/>
-      <c r="U77" s="17"/>
+      <c r="A77" s="16"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="16"/>
+      <c r="L77" s="16"/>
+      <c r="M77" s="16"/>
+      <c r="N77" s="16"/>
+      <c r="O77" s="16"/>
+      <c r="P77" s="16"/>
+      <c r="Q77" s="16"/>
+      <c r="R77" s="16"/>
+      <c r="S77" s="16"/>
+      <c r="T77" s="16"/>
+      <c r="U77" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/sophia's budget calculator data+visualization.xlsx
+++ b/sophia's budget calculator data+visualization.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\BudgetCalculator-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\BudgetCalculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2CF444-A87F-4A7B-81D3-6D5DE9A20F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5842212-70C6-4BEC-8988-FC65575C0C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Start here" sheetId="6" r:id="rId1"/>
     <sheet name="Budget Calculator" sheetId="2" r:id="rId2"/>
     <sheet name="Dashboard" sheetId="5" r:id="rId3"/>
+    <sheet name="Analysis" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Slicer_Category">#N/A</definedName>
@@ -23,15 +24,18 @@
     <definedName name="Slicer_Month">#N/A</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicerCache r:id="rId4"/>
-        <x14:slicerCache r:id="rId5"/>
         <x14:slicerCache r:id="rId6"/>
+        <x14:slicerCache r:id="rId7"/>
+        <x14:slicerCache r:id="rId8"/>
       </x15:slicerCaches>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -50,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -118,7 +122,25 @@
     <t>A REPORT ON OUR AUTOMATED BUDGET SPREADSHEET</t>
   </si>
   <si>
-    <t>JAN</t>
+    <t>Count of Category</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>FEB</t>
   </si>
 </sst>
 </file>
@@ -129,16 +151,8 @@
     <numFmt numFmtId="164" formatCode="[$₦-470]#,##0"/>
     <numFmt numFmtId="165" formatCode="[$₦-470]#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -275,42 +289,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -324,7 +339,7 @@
     <dxf>
       <numFmt numFmtId="165" formatCode="[$₦-470]#,##0.00"/>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="0"/>
         </patternFill>
@@ -334,7 +349,7 @@
       <fill>
         <patternFill>
           <fgColor indexed="64"/>
-          <bgColor theme="0"/>
+          <bgColor theme="8" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
     </dxf>
@@ -342,7 +357,7 @@
       <fill>
         <patternFill>
           <fgColor indexed="64"/>
-          <bgColor theme="0"/>
+          <bgColor theme="8" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
     </dxf>
@@ -350,7 +365,7 @@
       <fill>
         <patternFill>
           <fgColor indexed="64"/>
-          <bgColor theme="0"/>
+          <bgColor theme="8" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
     </dxf>
@@ -724,14 +739,16 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.6666666666666666E-2"/>
-          <c:y val="0.2061574074074074"/>
-          <c:w val="0.88888888888888884"/>
-          <c:h val="0.55657298046077575"/>
+          <c:x val="0.1876223628188208"/>
+          <c:y val="0.20312505969231243"/>
+          <c:w val="0.81237763718117917"/>
+          <c:h val="0.50805511940372627"/>
         </c:manualLayout>
       </c:layout>
-      <c:pieChart>
-        <c:varyColors val="1"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -746,40 +763,107 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="45000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="93000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="7000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="63500" dist="38100" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="45000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="glow" dir="t">
+                <a:rot lat="0" lon="0" rev="6360000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d contourW="1000" prstMaterial="flat">
+              <a:bevelT w="95250" h="101600"/>
+              <a:contourClr>
+                <a:scrgbClr r="0" g="0" b="0">
+                  <a:satMod val="300000"/>
+                </a:scrgbClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:shade val="15000"/>
-                      <a:satMod val="180000"/>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
                     </a:schemeClr>
                   </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
-                      <a:shade val="45000"/>
-                      <a:satMod val="170000"/>
+                  <a:gs pos="45000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="75000"/>
                     </a:schemeClr>
                   </a:gs>
-                  <a:gs pos="70000">
-                    <a:schemeClr val="accent2">
-                      <a:tint val="99000"/>
-                      <a:shade val="65000"/>
-                      <a:satMod val="155000"/>
+                  <a:gs pos="93000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="7000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:tint val="95500"/>
-                      <a:shade val="100000"/>
-                      <a:satMod val="155000"/>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
                     </a:schemeClr>
                   </a:gs>
                 </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
+                <a:lin ang="5400000" scaled="1"/>
               </a:gradFill>
               <a:ln>
                 <a:noFill/>
@@ -816,38 +900,42 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="15000"/>
-                      <a:satMod val="180000"/>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
                     </a:schemeClr>
                   </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent4">
-                      <a:shade val="45000"/>
-                      <a:satMod val="170000"/>
+                  <a:gs pos="45000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="75000"/>
                     </a:schemeClr>
                   </a:gs>
-                  <a:gs pos="70000">
-                    <a:schemeClr val="accent4">
-                      <a:tint val="99000"/>
-                      <a:shade val="65000"/>
-                      <a:satMod val="155000"/>
+                  <a:gs pos="93000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="7000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:tint val="95500"/>
-                      <a:shade val="100000"/>
-                      <a:satMod val="155000"/>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
                     </a:schemeClr>
                   </a:gs>
                 </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
+                <a:lin ang="5400000" scaled="1"/>
               </a:gradFill>
               <a:ln>
                 <a:noFill/>
@@ -884,38 +972,42 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
                     <a:schemeClr val="accent6">
-                      <a:shade val="15000"/>
-                      <a:satMod val="180000"/>
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
                     </a:schemeClr>
                   </a:gs>
-                  <a:gs pos="50000">
+                  <a:gs pos="45000">
                     <a:schemeClr val="accent6">
-                      <a:shade val="45000"/>
-                      <a:satMod val="170000"/>
+                      <a:lumMod val="75000"/>
                     </a:schemeClr>
                   </a:gs>
-                  <a:gs pos="70000">
+                  <a:gs pos="93000">
                     <a:schemeClr val="accent6">
-                      <a:tint val="99000"/>
-                      <a:shade val="65000"/>
-                      <a:satMod val="155000"/>
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="7000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
                     <a:schemeClr val="accent6">
-                      <a:tint val="95500"/>
-                      <a:shade val="100000"/>
-                      <a:satMod val="155000"/>
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
                     </a:schemeClr>
                   </a:gs>
                 </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
+                <a:lin ang="5400000" scaled="1"/>
               </a:gradFill>
               <a:ln>
                 <a:noFill/>
@@ -952,42 +1044,42 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent2">
+                    <a:schemeClr val="accent6">
                       <a:lumMod val="60000"/>
-                      <a:shade val="15000"/>
-                      <a:satMod val="180000"/>
+                      <a:lumOff val="40000"/>
                     </a:schemeClr>
                   </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
-                      <a:shade val="45000"/>
-                      <a:satMod val="170000"/>
+                  <a:gs pos="45000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="75000"/>
                     </a:schemeClr>
                   </a:gs>
-                  <a:gs pos="70000">
-                    <a:schemeClr val="accent2">
+                  <a:gs pos="93000">
+                    <a:schemeClr val="accent6">
                       <a:lumMod val="60000"/>
-                      <a:tint val="99000"/>
-                      <a:shade val="65000"/>
-                      <a:satMod val="155000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="7000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
+                    <a:schemeClr val="accent6">
                       <a:lumMod val="60000"/>
-                      <a:tint val="95500"/>
-                      <a:shade val="100000"/>
-                      <a:satMod val="155000"/>
+                      <a:lumOff val="40000"/>
                     </a:schemeClr>
                   </a:gs>
                 </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
+                <a:lin ang="5400000" scaled="1"/>
               </a:gradFill>
               <a:ln>
                 <a:noFill/>
@@ -1024,42 +1116,42 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent4">
+                    <a:schemeClr val="accent6">
                       <a:lumMod val="60000"/>
-                      <a:shade val="15000"/>
-                      <a:satMod val="180000"/>
+                      <a:lumOff val="40000"/>
                     </a:schemeClr>
                   </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="60000"/>
-                      <a:shade val="45000"/>
-                      <a:satMod val="170000"/>
+                  <a:gs pos="45000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="75000"/>
                     </a:schemeClr>
                   </a:gs>
-                  <a:gs pos="70000">
-                    <a:schemeClr val="accent4">
+                  <a:gs pos="93000">
+                    <a:schemeClr val="accent6">
                       <a:lumMod val="60000"/>
-                      <a:tint val="99000"/>
-                      <a:shade val="65000"/>
-                      <a:satMod val="155000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="7000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
+                    <a:schemeClr val="accent6">
                       <a:lumMod val="60000"/>
-                      <a:tint val="95500"/>
-                      <a:shade val="100000"/>
-                      <a:satMod val="155000"/>
+                      <a:lumOff val="40000"/>
                     </a:schemeClr>
                   </a:gs>
                 </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
+                <a:lin ang="5400000" scaled="1"/>
               </a:gradFill>
               <a:ln>
                 <a:noFill/>
@@ -1096,6 +1188,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
@@ -1103,35 +1196,34 @@
                   <a:gs pos="0">
                     <a:schemeClr val="accent6">
                       <a:lumMod val="60000"/>
-                      <a:shade val="15000"/>
-                      <a:satMod val="180000"/>
+                      <a:lumOff val="40000"/>
                     </a:schemeClr>
                   </a:gs>
-                  <a:gs pos="50000">
+                  <a:gs pos="45000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="93000">
                     <a:schemeClr val="accent6">
                       <a:lumMod val="60000"/>
-                      <a:shade val="45000"/>
-                      <a:satMod val="170000"/>
+                      <a:lumOff val="40000"/>
                     </a:schemeClr>
                   </a:gs>
-                  <a:gs pos="70000">
+                  <a:gs pos="7000">
                     <a:schemeClr val="accent6">
                       <a:lumMod val="60000"/>
-                      <a:tint val="99000"/>
-                      <a:shade val="65000"/>
-                      <a:satMod val="155000"/>
+                      <a:lumOff val="40000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
                     <a:schemeClr val="accent6">
                       <a:lumMod val="60000"/>
-                      <a:tint val="95500"/>
-                      <a:shade val="100000"/>
-                      <a:satMod val="155000"/>
+                      <a:lumOff val="40000"/>
                     </a:schemeClr>
                   </a:gs>
                 </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
+                <a:lin ang="5400000" scaled="1"/>
               </a:gradFill>
               <a:ln>
                 <a:noFill/>
@@ -1168,46 +1260,42 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                      <a:shade val="15000"/>
-                      <a:satMod val="180000"/>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
                     </a:schemeClr>
                   </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                      <a:shade val="45000"/>
-                      <a:satMod val="170000"/>
+                  <a:gs pos="45000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="75000"/>
                     </a:schemeClr>
                   </a:gs>
-                  <a:gs pos="70000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                      <a:tint val="99000"/>
-                      <a:shade val="65000"/>
-                      <a:satMod val="155000"/>
+                  <a:gs pos="93000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="7000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                      <a:tint val="95500"/>
-                      <a:shade val="100000"/>
-                      <a:satMod val="155000"/>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
                     </a:schemeClr>
                   </a:gs>
                 </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
+                <a:lin ang="5400000" scaled="1"/>
               </a:gradFill>
               <a:ln>
                 <a:noFill/>
@@ -1244,46 +1332,42 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                      <a:shade val="15000"/>
-                      <a:satMod val="180000"/>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
                     </a:schemeClr>
                   </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                      <a:shade val="45000"/>
-                      <a:satMod val="170000"/>
+                  <a:gs pos="45000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="75000"/>
                     </a:schemeClr>
                   </a:gs>
-                  <a:gs pos="70000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                      <a:tint val="99000"/>
-                      <a:shade val="65000"/>
-                      <a:satMod val="155000"/>
+                  <a:gs pos="93000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="7000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                      <a:tint val="95500"/>
-                      <a:shade val="100000"/>
-                      <a:satMod val="155000"/>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
                     </a:schemeClr>
                   </a:gs>
                 </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
+                <a:lin ang="5400000" scaled="1"/>
               </a:gradFill>
               <a:ln>
                 <a:noFill/>
@@ -1320,46 +1404,42 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
                     <a:schemeClr val="accent6">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                      <a:shade val="15000"/>
-                      <a:satMod val="180000"/>
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
                     </a:schemeClr>
                   </a:gs>
-                  <a:gs pos="50000">
+                  <a:gs pos="45000">
                     <a:schemeClr val="accent6">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                      <a:shade val="45000"/>
-                      <a:satMod val="170000"/>
+                      <a:lumMod val="75000"/>
                     </a:schemeClr>
                   </a:gs>
-                  <a:gs pos="70000">
+                  <a:gs pos="93000">
                     <a:schemeClr val="accent6">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                      <a:tint val="99000"/>
-                      <a:shade val="65000"/>
-                      <a:satMod val="155000"/>
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="7000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
                     <a:schemeClr val="accent6">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                      <a:tint val="95500"/>
-                      <a:shade val="100000"/>
-                      <a:satMod val="155000"/>
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
                     </a:schemeClr>
                   </a:gs>
                 </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
+                <a:lin ang="5400000" scaled="1"/>
               </a:gradFill>
               <a:ln>
                 <a:noFill/>
@@ -1396,42 +1476,42 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="80000"/>
-                      <a:shade val="15000"/>
-                      <a:satMod val="180000"/>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
                     </a:schemeClr>
                   </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="80000"/>
-                      <a:shade val="45000"/>
-                      <a:satMod val="170000"/>
+                  <a:gs pos="45000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="75000"/>
                     </a:schemeClr>
                   </a:gs>
-                  <a:gs pos="70000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="80000"/>
-                      <a:tint val="99000"/>
-                      <a:shade val="65000"/>
-                      <a:satMod val="155000"/>
+                  <a:gs pos="93000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="7000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="80000"/>
-                      <a:tint val="95500"/>
-                      <a:shade val="100000"/>
-                      <a:satMod val="155000"/>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
                     </a:schemeClr>
                   </a:gs>
                 </a:gsLst>
-                <a:lin ang="16200000" scaled="0"/>
+                <a:lin ang="5400000" scaled="1"/>
               </a:gradFill>
               <a:ln>
                 <a:noFill/>
@@ -1491,26 +1571,27 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="bestFit"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="3175">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="3175">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1561,31 +1642,31 @@
                   <c:v>1200000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20000</c:v>
+                  <c:v>41300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15000</c:v>
+                  <c:v>25000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22900</c:v>
+                  <c:v>47800</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>188100</c:v>
+                  <c:v>298900</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>300000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6500</c:v>
+                  <c:v>150000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4800</c:v>
+                  <c:v>90000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3850</c:v>
+                  <c:v>20500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1597,17 +1678,226 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="bestFit"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+        <c:gapWidth val="20"/>
+        <c:overlap val="100"/>
+        <c:axId val="615229904"/>
+        <c:axId val="615216176"/>
+      </c:barChart>
+      <c:valAx>
+        <c:axId val="615216176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1200000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>AMOUNT</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="[$₦-470]#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="615229904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="615229904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Categories</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47589318092675287"/>
+              <c:y val="0.89789773226517511"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="615216176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1616,34 +1906,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1690,10 +1952,885 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[sophia's budget calculator data+visualization.xlsx]Analysis!PivotTable19</c:name>
+    <c:fmtId val="3"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>THE</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> COUNT OF CATEGORIES BY MONTH</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.34899947340705639"/>
+          <c:y val="6.1427795341043714E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="60000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="5000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+            </a:gradFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analysis!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="60000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="5000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Analysis!$A$4:$A$31</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="24"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Data</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Education</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Food</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Healthcare</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Lifestyle</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Miscellaneous</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Rent</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Salary</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Transportation</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Utilities</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Data</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Education</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Food</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Healthcare</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Lifestyle</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Miscellaneous</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Salary</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Transportation</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Utilities</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Data</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Food</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Salary</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Transportation</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Utilities</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Jan</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Feb</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Mar</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Analysis!$B$4:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ECAB-497E-9A0A-8CDBB7974FE7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="711453280"/>
+        <c:axId val="711462432"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="711453280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Month</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> and Category</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="711462432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="711462432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Count</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Category</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="711453280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -2223,6 +3360,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3725,6 +5378,130 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>The</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Month slicer </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>shows the list of months that are present in the </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>budget table, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>and clicking on one of them would make the </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>budget table </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>show only the entry of the month selected.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Now we are done with the Budget Calculator Sheet. Let's move to the Dashboard Sheet.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>The Dashboard Sheet.</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" sz="1600">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -3746,10 +5523,12 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>The</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" u="sng">
+            <a:t>There are four parts to this sheet, and they are:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -3758,10 +5537,12 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="1" u="sng">
+            <a:t>1. The Monthly progress bar.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -3770,8 +5551,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Month slicer </a:t>
-          </a:r>
+            <a:t>2. The Bar chart.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1600">
               <a:solidFill>
@@ -3782,10 +5565,12 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>shows the list of months that are present in the </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="1">
+            <a:t>3. The Line Chart.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -3794,43 +5579,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>budget table, </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>and clicking on one of them would make the </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>budget table </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>show only the entry of the month selected.</a:t>
+            <a:t>4. The Category slicer</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3843,99 +5592,6 @@
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Now we are done with the Budget Calculator Sheet. Let's move to the Dashboard Sheet.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" u="sng">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>The Dashboard Sheet.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1600">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>There are three parts to this sheet, and they are:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>1. The monthly progress bar.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>2. The pie chart.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>3. The category slicer</a:t>
-          </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4609,7 +6265,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>The Pie Chart</a:t>
+            <a:t>The Bar Chart</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1600">
             <a:solidFill>
@@ -4632,12 +6288,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>The pie chart shows the amount spent on each category monthly. The colors represent the different categories and the legend shows what colors belong to each category. When the month in the progress bar is changed the pie chart reacts and changes to the amount spent on that month.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600">
+            <a:t>The bar</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -4646,12 +6300,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" u="none">
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -4660,10 +6312,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>		A</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" u="none" baseline="0">
+            <a:t>chart shows the amount spent on each category monthly.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -4672,31 +6324,109 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> Legend.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1600" u="none">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1600" u="sng">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1600" u="sng">
+            <a:t> D</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ifferent</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> c</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>olors represent the different categories.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>When the month in the progress bar is changed the bar chart reacts and changes to the amount spent on that month.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>The Line Chart</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>The line chart shows</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> the shows the count of everycategory by month. It shows a trendline of how many times you imputed a category. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -5626,50 +7356,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>74</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>75</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>58328</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4951418-E1CD-D9F6-7661-17C94378086F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="45552360" y="3558540"/>
-          <a:ext cx="746760" cy="706028"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>84</xdr:col>
       <xdr:colOff>297180</xdr:colOff>
       <xdr:row>20</xdr:row>
@@ -5695,7 +7381,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5739,7 +7425,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5929,16 +7615,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>11430</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>217170</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>173355</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -5974,8 +7660,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9726930" y="1095375"/>
-              <a:ext cx="1836420" cy="3339465"/>
+              <a:off x="10542270" y="1095375"/>
+              <a:ext cx="2213610" cy="3689985"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6008,15 +7694,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1910714</xdr:colOff>
+      <xdr:colOff>1897380</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>162876</xdr:rowOff>
+      <xdr:rowOff>170496</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6041,7 +7727,700 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1897380</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63442EB2-F841-4232-A9DE-DAB61C6B6373}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="HP" refreshedDate="44876.473023379629" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="55" xr:uid="{5CE718A5-4EBA-4BD6-94CF-6C8E45EF6531}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="budget_table"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="Month" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Jan"/>
+        <s v="Feb"/>
+        <s v="Mar"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Date" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2022-01-01T00:00:00" maxDate="2022-03-17T00:00:00"/>
+    </cacheField>
+    <cacheField name="Category" numFmtId="0">
+      <sharedItems containsBlank="1" count="11">
+        <s v="Salary"/>
+        <s v="Utilities"/>
+        <s v="Data"/>
+        <s v="Transportation"/>
+        <s v="Food"/>
+        <s v="Lifestyle"/>
+        <s v="Rent"/>
+        <s v="Education"/>
+        <s v="Miscellaneous"/>
+        <s v="Healthcare"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Debit" numFmtId="164">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="650" maxValue="300000"/>
+    </cacheField>
+    <cacheField name="Income" numFmtId="164">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1200000" maxValue="1200000"/>
+    </cacheField>
+    <cacheField name="Balance" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="626850" maxValue="2349350"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="55">
+  <r>
+    <x v="0"/>
+    <d v="2022-01-01T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <n v="1200000"/>
+    <n v="1200000"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2022-01-02T00:00:00"/>
+    <x v="1"/>
+    <n v="20000"/>
+    <m/>
+    <n v="1180000"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2022-01-03T00:00:00"/>
+    <x v="2"/>
+    <n v="5000"/>
+    <m/>
+    <n v="1175000"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2022-01-04T00:00:00"/>
+    <x v="3"/>
+    <n v="650"/>
+    <m/>
+    <n v="1174350"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2022-01-04T00:00:00"/>
+    <x v="4"/>
+    <n v="2500"/>
+    <m/>
+    <n v="1171850"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2022-01-06T00:00:00"/>
+    <x v="5"/>
+    <n v="3450"/>
+    <m/>
+    <n v="1168400"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2022-01-15T00:00:00"/>
+    <x v="6"/>
+    <n v="300000"/>
+    <m/>
+    <n v="868400"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2022-01-16T00:00:00"/>
+    <x v="7"/>
+    <n v="6500"/>
+    <m/>
+    <n v="861900"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2022-01-17T00:00:00"/>
+    <x v="8"/>
+    <n v="12000"/>
+    <m/>
+    <n v="849900"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2022-01-18T00:00:00"/>
+    <x v="4"/>
+    <n v="7500"/>
+    <m/>
+    <n v="842400"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2022-01-19T00:00:00"/>
+    <x v="2"/>
+    <n v="5000"/>
+    <m/>
+    <n v="837400"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2022-01-20T00:00:00"/>
+    <x v="4"/>
+    <n v="3200"/>
+    <m/>
+    <n v="834200"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2022-01-21T00:00:00"/>
+    <x v="9"/>
+    <n v="4800"/>
+    <m/>
+    <n v="829400"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2022-01-21T00:00:00"/>
+    <x v="3"/>
+    <n v="2000"/>
+    <m/>
+    <n v="827400"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2022-01-23T00:00:00"/>
+    <x v="5"/>
+    <n v="30000"/>
+    <m/>
+    <n v="797400"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2022-01-26T00:00:00"/>
+    <x v="4"/>
+    <n v="4000"/>
+    <m/>
+    <n v="793400"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2022-01-27T00:00:00"/>
+    <x v="2"/>
+    <n v="5000"/>
+    <m/>
+    <n v="788400"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2022-01-28T00:00:00"/>
+    <x v="3"/>
+    <n v="1200"/>
+    <m/>
+    <n v="787200"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2022-01-29T00:00:00"/>
+    <x v="5"/>
+    <n v="154650"/>
+    <m/>
+    <n v="632550"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <d v="2022-01-30T00:00:00"/>
+    <x v="4"/>
+    <n v="5700"/>
+    <m/>
+    <n v="626850"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2022-02-01T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <n v="1200000"/>
+    <n v="1826850"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2022-02-02T00:00:00"/>
+    <x v="1"/>
+    <n v="35000"/>
+    <m/>
+    <n v="1791850"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2022-02-02T00:00:00"/>
+    <x v="3"/>
+    <n v="5000"/>
+    <m/>
+    <n v="1786850"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2022-02-02T00:00:00"/>
+    <x v="4"/>
+    <n v="15000"/>
+    <m/>
+    <n v="1771850"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2022-02-05T00:00:00"/>
+    <x v="2"/>
+    <n v="10000"/>
+    <m/>
+    <n v="1761850"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2022-02-06T00:00:00"/>
+    <x v="7"/>
+    <n v="150000"/>
+    <m/>
+    <n v="1611850"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2022-02-08T00:00:00"/>
+    <x v="3"/>
+    <n v="3700"/>
+    <m/>
+    <n v="1608150"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2022-02-08T00:00:00"/>
+    <x v="4"/>
+    <n v="9000"/>
+    <m/>
+    <n v="1599150"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2022-02-08T00:00:00"/>
+    <x v="5"/>
+    <n v="188000"/>
+    <m/>
+    <n v="1411150"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2022-02-08T00:00:00"/>
+    <x v="3"/>
+    <n v="4200"/>
+    <m/>
+    <n v="1406950"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2022-02-10T00:00:00"/>
+    <x v="4"/>
+    <n v="3100"/>
+    <m/>
+    <n v="1403850"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2022-02-11T00:00:00"/>
+    <x v="9"/>
+    <n v="90000"/>
+    <m/>
+    <n v="1313850"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2022-02-12T00:00:00"/>
+    <x v="4"/>
+    <n v="15000"/>
+    <m/>
+    <n v="1298850"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2022-02-14T00:00:00"/>
+    <x v="3"/>
+    <n v="4500"/>
+    <m/>
+    <n v="1294350"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2022-02-14T00:00:00"/>
+    <x v="5"/>
+    <n v="110900"/>
+    <m/>
+    <n v="1183450"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2022-02-17T00:00:00"/>
+    <x v="4"/>
+    <n v="1200"/>
+    <m/>
+    <n v="1182250"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2022-02-19T00:00:00"/>
+    <x v="4"/>
+    <n v="2700"/>
+    <m/>
+    <n v="1179550"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2022-02-20T00:00:00"/>
+    <x v="2"/>
+    <n v="15000"/>
+    <m/>
+    <n v="1164550"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2022-02-23T00:00:00"/>
+    <x v="8"/>
+    <n v="4000"/>
+    <m/>
+    <n v="1160550"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2022-02-25T00:00:00"/>
+    <x v="3"/>
+    <n v="3100"/>
+    <m/>
+    <n v="1157450"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2022-02-25T00:00:00"/>
+    <x v="1"/>
+    <n v="6300"/>
+    <m/>
+    <n v="1151150"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2022-02-28T00:00:00"/>
+    <x v="4"/>
+    <n v="1800"/>
+    <m/>
+    <n v="1149350"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2022-03-01T00:00:00"/>
+    <x v="0"/>
+    <m/>
+    <n v="1200000"/>
+    <n v="2349350"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2022-03-11T00:00:00"/>
+    <x v="4"/>
+    <n v="70000"/>
+    <m/>
+    <n v="2279350"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2022-03-15T00:00:00"/>
+    <x v="2"/>
+    <n v="20000"/>
+    <m/>
+    <n v="2259350"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2022-03-15T00:00:00"/>
+    <x v="1"/>
+    <n v="90000"/>
+    <m/>
+    <n v="2169350"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2022-03-15T00:00:00"/>
+    <x v="3"/>
+    <n v="2500"/>
+    <m/>
+    <n v="2166850"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2022-03-16T00:00:00"/>
+    <x v="4"/>
+    <n v="5500"/>
+    <m/>
+    <n v="2161350"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <n v="2161350"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <n v="2161350"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <n v="2161350"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <n v="2161350"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <n v="2161350"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <n v="2161350"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <n v="2161350"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6B80D441-0978-4C52-AC11-838EA3A493DC}" name="PivotTable19" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A3:B31" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="12">
+        <item x="2"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="9"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item h="1" x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="28">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Category" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6065,7 +8444,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Feb" xr10:uid="{78BF8775-F4FD-4AD3-91D4-083D619A55A0}" sourceName="JAN">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Feb" xr10:uid="{78BF8775-F4FD-4AD3-91D4-083D619A55A0}" sourceName="FEB">
   <extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
       <x15:tableSlicerCache tableId="2" column="1"/>
@@ -6083,7 +8462,7 @@
 
 <file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Feb" xr10:uid="{6F594000-6E0A-4718-BB9A-375B9B3BEFA7}" cache="Slicer_Feb" caption="JAN" style="SlicerStyleOther2" rowHeight="241300"/>
+  <slicer name="Feb" xr10:uid="{6F594000-6E0A-4718-BB9A-375B9B3BEFA7}" cache="Slicer_Feb" caption="FEB" style="SlicerStyleOther2" rowHeight="241300"/>
 </slicers>
 </file>
 
@@ -6126,12 +8505,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{727123DD-D4D1-481F-A6B8-31AF2ADCBD6F}" name="visualization_table" displayName="visualization_table" ref="B7:C17" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="B7:C17" xr:uid="{727123DD-D4D1-481F-A6B8-31AF2ADCBD6F}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{49CF9A7D-83D0-4852-9E3B-FD5D4CBC0D60}" name="JAN" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{49CF9A7D-83D0-4852-9E3B-FD5D4CBC0D60}" name="FEB" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{1A216962-9960-42A2-A859-D75C40FFEF89}" name="TOTAL" dataDxfId="0">
       <calculatedColumnFormula>SUMIFS(budget_table[Debit],budget_table[Month],Dashboard!$B$7,budget_table[Category],Dashboard!B8)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -6468,100 +8847,100 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2C8C45-DB35-4117-90BB-5BD01DD90EEA}">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CD1" workbookViewId="0">
-      <selection activeCell="CN19" sqref="CN19"/>
+    <sheetView tabSelected="1" topLeftCell="BI1" workbookViewId="0">
+      <selection activeCell="BJ22" sqref="BJ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="20"/>
+    <col min="1" max="16384" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6576,1229 +8955,1245 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37187F59-3512-49E4-825D-DB9E6B38293C}">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showRowColHeaders="0" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="12.5546875" style="5" customWidth="1"/>
-    <col min="4" max="6" width="12.5546875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="2" style="5" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="2.6640625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="5"/>
-    <col min="13" max="13" width="12.88671875" style="5" customWidth="1"/>
-    <col min="14" max="14" width="7" style="5" customWidth="1"/>
-    <col min="15" max="16" width="8.88671875" style="5"/>
-    <col min="17" max="17" width="11.5546875" style="5" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="3" width="12.5546875" style="4" customWidth="1"/>
+    <col min="4" max="6" width="12.5546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="2" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="2.6640625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="4"/>
+    <col min="13" max="13" width="12.88671875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="7" style="4" customWidth="1"/>
+    <col min="15" max="16" width="8.88671875" style="4"/>
+    <col min="17" max="17" width="11.5546875" style="4" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="str">
+      <c r="A2" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>44562</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>1200000</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>1200000</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="12">
         <f>AVERAGEIF(budget_table[Category],H2,budget_table[Income])</f>
         <v>1200000</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="str">
+      <c r="A3" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>44563</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>20000</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <f>SUM(F2+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>1180000</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="12">
         <f>AVERAGEIF(budget_table[Category],H3,budget_table[Debit])</f>
         <v>37825</v>
       </c>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="str">
+      <c r="A4" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>44564</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>5000</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <f>SUM(F3+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>1175000</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="12">
         <f>AVERAGEIF(budget_table[Category],H4,budget_table[Debit])</f>
-        <v>3043.75</v>
-      </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
+        <v>2983.3333333333335</v>
+      </c>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="str">
+      <c r="A5" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>44565</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>650</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <f>SUM(F4+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>1174350</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="12">
         <f>AVERAGEIF(budget_table[Category],H5,budget_table[Debit])</f>
         <v>10000</v>
       </c>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="str">
+      <c r="A6" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>44565</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>2500</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <f>SUM(F5+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>1171850</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="12">
         <f>AVERAGEIF(budget_table[Category],H6,budget_table[Debit])</f>
-        <v>10823.076923076924</v>
-      </c>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
+        <v>10442.857142857143</v>
+      </c>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="str">
+      <c r="A7" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>44567</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>3450</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <f>SUM(F6+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>1168400</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="12">
         <f>AVERAGEIF(budget_table[Category],H7,budget_table[Debit])</f>
         <v>97400</v>
       </c>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="str">
+      <c r="A8" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>44576</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>300000</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <f>SUM(F7+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>868400</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="12">
         <f>AVERAGEIF(budget_table[Category],H8,budget_table[Debit])</f>
         <v>300000</v>
       </c>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="str">
+      <c r="A9" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>44577</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>6500</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <f>SUM(F8+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>861900</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="12">
         <f>AVERAGEIF(budget_table[Category],H9,budget_table[Debit])</f>
         <v>78250</v>
       </c>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="str">
+      <c r="A10" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>44578</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>12000</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <f>SUM(F9+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>849900</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="12">
         <f>AVERAGEIF(budget_table[Category],H10,budget_table[Debit])</f>
         <v>8000</v>
       </c>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="str">
+      <c r="A11" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>44579</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>7500</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <f>SUM(F10+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>842400</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="12">
         <f>AVERAGEIF(budget_table[Category],H11,budget_table[Debit])</f>
         <v>47400</v>
       </c>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
     </row>
     <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="str">
+      <c r="A12" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>44580</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>5000</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <f>SUM(F11+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>837400</v>
       </c>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="str">
+      <c r="A13" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>44581</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>3200</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <f>SUM(F12+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>834200</v>
       </c>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="str">
+      <c r="A14" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>44582</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>4800</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <f>SUM(F13+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>829400</v>
       </c>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="str">
+      <c r="A15" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>44582</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>2000</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <f>SUM(F14+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>827400</v>
       </c>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="str">
+      <c r="A16" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>44584</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>30000</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <f>SUM(F15+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>797400</v>
       </c>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="str">
+      <c r="A17" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>44587</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>4000</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <f>SUM(F16+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>793400</v>
       </c>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
     </row>
     <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="str">
+      <c r="A18" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <v>44588</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>5000</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <f>SUM(F17+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>788400</v>
       </c>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="str">
+      <c r="A19" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>44589</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>1200</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <f>SUM(F18+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>787200</v>
       </c>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="str">
+      <c r="A20" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="9">
         <v>44590</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>154650</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <f>SUM(F19+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>632550</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="str">
+      <c r="A21" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <v>44591</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>5700</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <f>SUM(F20+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>626850</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="str">
+      <c r="A22" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Feb</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="9">
         <v>44593</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>1200000</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <f>SUM(F21+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>1826850</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="str">
+      <c r="A23" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Feb</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="9">
         <v>44594</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>35000</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <f>SUM(F22+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>1791850</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="str">
+      <c r="A24" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Feb</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="9">
         <v>44594</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>5000</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <f>SUM(F23+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>1786850</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="str">
+      <c r="A25" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Feb</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="9">
         <v>44594</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>15000</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <f>SUM(F24+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>1771850</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="str">
+      <c r="A26" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Feb</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="9">
         <v>44597</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>10000</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
         <f>SUM(F25+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>1761850</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="str">
+      <c r="A27" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Feb</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="9">
         <v>44598</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <v>150000</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="5">
         <f>SUM(F26+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>1611850</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="str">
+      <c r="A28" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Feb</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="9">
         <v>44600</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>3700</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="5">
         <f>SUM(F27+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>1608150</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="str">
+      <c r="A29" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Feb</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="9">
         <v>44600</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <v>9000</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="5">
         <f>SUM(F28+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>1599150</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="str">
+      <c r="A30" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Feb</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="9">
         <v>44600</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <v>188000</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="5">
         <f>SUM(F29+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>1411150</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="str">
+      <c r="A31" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Feb</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="9">
         <v>44600</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="5">
         <v>4200</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="5">
         <f>SUM(F30+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>1406950</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="str">
+      <c r="A32" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Feb</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="9">
         <v>44602</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="5">
         <v>3100</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="5">
         <f>SUM(F31+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>1403850</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="str">
+      <c r="A33" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Feb</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="9">
         <v>44603</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="5">
         <v>90000</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="5">
         <f>SUM(F32+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>1313850</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="str">
+      <c r="A34" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Feb</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="9">
         <v>44604</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="5">
         <v>15000</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="5">
         <f>SUM(F33+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>1298850</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="str">
+      <c r="A35" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Feb</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="9">
         <v>44606</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="5">
         <v>4500</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="5">
         <f>SUM(F34+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>1294350</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="str">
+      <c r="A36" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Feb</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="9">
         <v>44606</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="5">
         <v>110900</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="5">
         <f>SUM(F35+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>1183450</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="str">
+      <c r="A37" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Feb</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="9">
         <v>44609</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="5">
         <v>1200</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="5">
         <f>SUM(F36+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>1182250</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="str">
+      <c r="A38" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Feb</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="9">
         <v>44611</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="5">
         <v>2700</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="5">
         <f>SUM(F37+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>1179550</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="str">
+      <c r="A39" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Feb</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="9">
         <v>44612</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="5">
         <v>15000</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="5">
         <f>SUM(F38+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>1164550</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="str">
+      <c r="A40" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Feb</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="9">
         <v>44615</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="5">
         <v>4000</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="5">
         <f>SUM(F39+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>1160550</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="str">
+      <c r="A41" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Feb</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="9">
         <v>44617</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="5">
         <v>3100</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="5">
         <f>SUM(F40+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>1157450</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="str">
+      <c r="A42" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Feb</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="9">
         <v>44617</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="5">
         <v>6300</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="5">
         <f>SUM(F41+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>1151150</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="str">
+      <c r="A43" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Feb</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="9">
         <v>44620</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="5">
         <v>1800</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="5">
         <f>SUM(F42+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>1149350</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="str">
+      <c r="A44" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Mar</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="9">
         <v>44621</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="5">
         <v>1200000</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="5">
         <f>SUM(F43+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>2349350</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="str">
+      <c r="A45" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Mar</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45" s="9">
         <v>44631</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="5">
         <v>70000</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="5">
         <f>SUM(F44+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>2279350</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="str">
+      <c r="A46" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Mar</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="9">
         <v>44635</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="5">
         <v>20000</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="5">
         <f>SUM(F45+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>2259350</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="str">
+      <c r="A47" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Mar</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="9">
         <v>44635</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="5">
         <v>90000</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="5">
         <f>SUM(F46+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
         <v>2169350</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="str">
+      <c r="A48" s="4" t="str">
+        <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
+        <v>Mar</v>
+      </c>
+      <c r="B48" s="9">
+        <v>44635</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="5">
+        <v>2500</v>
+      </c>
+      <c r="F48" s="5">
+        <f>SUM(F47+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
+        <v>2166850</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="str">
+        <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
+        <v>Mar</v>
+      </c>
+      <c r="B49" s="9">
+        <v>44636</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="5">
+        <v>5500</v>
+      </c>
+      <c r="F49" s="5">
+        <f>SUM(F48+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
+        <v>2161350</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="B48" s="10"/>
-      <c r="F48" s="6">
-        <f>SUM(F47+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
-        <v>2169350</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="str">
+      <c r="F50" s="5">
+        <f>SUM(F49+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
+        <v>2161350</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="F49" s="6">
-        <f>SUM(F48+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
-        <v>2169350</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="str">
+      <c r="F51" s="5">
+        <f>SUM(F50+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
+        <v>2161350</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="F50" s="6">
-        <f>SUM(F49+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
-        <v>2169350</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="str">
+      <c r="B52" s="9"/>
+      <c r="F52" s="5">
+        <f>SUM(F51+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
+        <v>2161350</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="F51" s="6">
-        <f>SUM(F50+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
-        <v>2169350</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="str">
+      <c r="B53" s="9"/>
+      <c r="F53" s="5">
+        <f>SUM(F52+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
+        <v>2161350</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="B52" s="10"/>
-      <c r="F52" s="6">
-        <f>SUM(F51+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
-        <v>2169350</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="str">
+      <c r="F54" s="5">
+        <f>SUM(F53+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
+        <v>2161350</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="B53" s="10"/>
-      <c r="F53" s="6">
-        <f>SUM(F52+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
-        <v>2169350</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="str">
+      <c r="F55" s="5">
+        <f>SUM(F54+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
+        <v>2161350</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="str">
         <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="F54" s="6">
-        <f>SUM(F53+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
-        <v>2169350</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="str">
-        <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
-        <v>Jan</v>
-      </c>
-      <c r="F55" s="6">
-        <f>SUM(F54+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
-        <v>2169350</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="str">
-        <f>TEXT(budget_table[[#This Row],[Date]], "mmm")</f>
-        <v>Jan</v>
-      </c>
-      <c r="F56" s="6">
+      <c r="F56" s="5">
         <f>SUM(F55+(budget_table[[#This Row],[Income]]-budget_table[[#This Row],[Debit]]))</f>
-        <v>2169350</v>
+        <v>2161350</v>
       </c>
     </row>
   </sheetData>
@@ -7836,1847 +10231,377 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2873913-08B9-4E33-9F77-6B93D1D40114}">
-  <dimension ref="A1:U77"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5546875" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="4.5546875" style="1" customWidth="1"/>
+    <col min="5" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="11.6640625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25"/>
-      <c r="B1" s="24" t="s">
+    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24"/>
+      <c r="B1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="16"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="18" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="24"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="24"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="24"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="24"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B7" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="16"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="16" t="s">
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="15">
         <f>SUMIFS(budget_table[Income], budget_table[Month], Dashboard!B7,budget_table[Category],Dashboard!B8)</f>
         <v>1200000</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="16"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="16" t="s">
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="15">
         <f>SUMIFS(budget_table[Debit],budget_table[Month],Dashboard!$B$7,budget_table[Category],Dashboard!B9)</f>
-        <v>20000</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="16"/>
-    </row>
-    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="16" t="s">
+        <v>41300</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="15">
         <f>SUMIFS(budget_table[Debit],budget_table[Month],Dashboard!$B$7,budget_table[Category],Dashboard!B10)</f>
-        <v>15000</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="16"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="16" t="s">
+        <v>25000</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="15">
         <f>SUMIFS(budget_table[Debit],budget_table[Month],Dashboard!$B$7,budget_table[Category],Dashboard!B11)</f>
-        <v>22900</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="16"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="16" t="s">
+        <v>47800</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="15">
         <f>SUMIFS(budget_table[Debit],budget_table[Month],Dashboard!$B$7,budget_table[Category],Dashboard!B12)</f>
-        <v>188100</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="16"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="16" t="s">
+        <v>298900</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="15">
         <f>SUMIFS(budget_table[Debit],budget_table[Month],Dashboard!$B$7,budget_table[Category],Dashboard!B13)</f>
-        <v>300000</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="16"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="15">
         <f>SUMIFS(budget_table[Debit],budget_table[Month],Dashboard!$B$7,budget_table[Category],Dashboard!B14)</f>
-        <v>6500</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="16"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="16" t="s">
+        <v>150000</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="15">
         <f>SUMIFS(budget_table[Debit],budget_table[Month],Dashboard!$B$7,budget_table[Category],Dashboard!B15)</f>
-        <v>12000</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="16"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="16" t="s">
+        <v>4000</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="15">
         <f>SUMIFS(budget_table[Debit],budget_table[Month],Dashboard!$B$7,budget_table[Category],Dashboard!B16)</f>
-        <v>4800</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="16"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="16" t="s">
+        <v>90000</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="15">
         <f>SUMIFS(budget_table[Debit],budget_table[Month],Dashboard!$B$7,budget_table[Category],Dashboard!B17)</f>
-        <v>3850</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="16"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="16"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="16"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="16"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="16"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="16"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="16"/>
-      <c r="T30" s="16"/>
-      <c r="U30" s="16"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16"/>
-      <c r="U31" s="16"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="16"/>
-      <c r="T32" s="16"/>
-      <c r="U32" s="16"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
-      <c r="U33" s="16"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="16"/>
-      <c r="T34" s="16"/>
-      <c r="U34" s="16"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="16"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="16"/>
-      <c r="S36" s="16"/>
-      <c r="T36" s="16"/>
-      <c r="U36" s="16"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
-      <c r="S37" s="16"/>
-      <c r="T37" s="16"/>
-      <c r="U37" s="16"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
-      <c r="S38" s="16"/>
-      <c r="T38" s="16"/>
-      <c r="U38" s="16"/>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="16"/>
-      <c r="S39" s="16"/>
-      <c r="T39" s="16"/>
-      <c r="U39" s="16"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
-      <c r="R40" s="16"/>
-      <c r="S40" s="16"/>
-      <c r="T40" s="16"/>
-      <c r="U40" s="16"/>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="16"/>
-      <c r="R41" s="16"/>
-      <c r="S41" s="16"/>
-      <c r="T41" s="16"/>
-      <c r="U41" s="16"/>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="16"/>
-      <c r="R42" s="16"/>
-      <c r="S42" s="16"/>
-      <c r="T42" s="16"/>
-      <c r="U42" s="16"/>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="16"/>
-      <c r="R43" s="16"/>
-      <c r="S43" s="16"/>
-      <c r="T43" s="16"/>
-      <c r="U43" s="16"/>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="16"/>
-      <c r="R44" s="16"/>
-      <c r="S44" s="16"/>
-      <c r="T44" s="16"/>
-      <c r="U44" s="16"/>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
-      <c r="R45" s="16"/>
-      <c r="S45" s="16"/>
-      <c r="T45" s="16"/>
-      <c r="U45" s="16"/>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="16"/>
-      <c r="S46" s="16"/>
-      <c r="T46" s="16"/>
-      <c r="U46" s="16"/>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="16"/>
-      <c r="P47" s="16"/>
-      <c r="Q47" s="16"/>
-      <c r="R47" s="16"/>
-      <c r="S47" s="16"/>
-      <c r="T47" s="16"/>
-      <c r="U47" s="16"/>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
-      <c r="Q48" s="16"/>
-      <c r="R48" s="16"/>
-      <c r="S48" s="16"/>
-      <c r="T48" s="16"/>
-      <c r="U48" s="16"/>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A49" s="16"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
-      <c r="Q49" s="16"/>
-      <c r="R49" s="16"/>
-      <c r="S49" s="16"/>
-      <c r="T49" s="16"/>
-      <c r="U49" s="16"/>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
-      <c r="Q50" s="16"/>
-      <c r="R50" s="16"/>
-      <c r="S50" s="16"/>
-      <c r="T50" s="16"/>
-      <c r="U50" s="16"/>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="16"/>
-      <c r="O51" s="16"/>
-      <c r="P51" s="16"/>
-      <c r="Q51" s="16"/>
-      <c r="R51" s="16"/>
-      <c r="S51" s="16"/>
-      <c r="T51" s="16"/>
-      <c r="U51" s="16"/>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A52" s="16"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="16"/>
-      <c r="S52" s="16"/>
-      <c r="T52" s="16"/>
-      <c r="U52" s="16"/>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A53" s="16"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="16"/>
-      <c r="R53" s="16"/>
-      <c r="S53" s="16"/>
-      <c r="T53" s="16"/>
-      <c r="U53" s="16"/>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16"/>
-      <c r="O54" s="16"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="16"/>
-      <c r="R54" s="16"/>
-      <c r="S54" s="16"/>
-      <c r="T54" s="16"/>
-      <c r="U54" s="16"/>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A55" s="16"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="16"/>
-      <c r="O55" s="16"/>
-      <c r="P55" s="16"/>
-      <c r="Q55" s="16"/>
-      <c r="R55" s="16"/>
-      <c r="S55" s="16"/>
-      <c r="T55" s="16"/>
-      <c r="U55" s="16"/>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
-      <c r="Q56" s="16"/>
-      <c r="R56" s="16"/>
-      <c r="S56" s="16"/>
-      <c r="T56" s="16"/>
-      <c r="U56" s="16"/>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A57" s="16"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="16"/>
-      <c r="L57" s="16"/>
-      <c r="M57" s="16"/>
-      <c r="N57" s="16"/>
-      <c r="O57" s="16"/>
-      <c r="P57" s="16"/>
-      <c r="Q57" s="16"/>
-      <c r="R57" s="16"/>
-      <c r="S57" s="16"/>
-      <c r="T57" s="16"/>
-      <c r="U57" s="16"/>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A58" s="16"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="16"/>
-      <c r="N58" s="16"/>
-      <c r="O58" s="16"/>
-      <c r="P58" s="16"/>
-      <c r="Q58" s="16"/>
-      <c r="R58" s="16"/>
-      <c r="S58" s="16"/>
-      <c r="T58" s="16"/>
-      <c r="U58" s="16"/>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A59" s="16"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="16"/>
-      <c r="L59" s="16"/>
-      <c r="M59" s="16"/>
-      <c r="N59" s="16"/>
-      <c r="O59" s="16"/>
-      <c r="P59" s="16"/>
-      <c r="Q59" s="16"/>
-      <c r="R59" s="16"/>
-      <c r="S59" s="16"/>
-      <c r="T59" s="16"/>
-      <c r="U59" s="16"/>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A60" s="16"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="16"/>
-      <c r="L60" s="16"/>
-      <c r="M60" s="16"/>
-      <c r="N60" s="16"/>
-      <c r="O60" s="16"/>
-      <c r="P60" s="16"/>
-      <c r="Q60" s="16"/>
-      <c r="R60" s="16"/>
-      <c r="S60" s="16"/>
-      <c r="T60" s="16"/>
-      <c r="U60" s="16"/>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A61" s="16"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="16"/>
-      <c r="L61" s="16"/>
-      <c r="M61" s="16"/>
-      <c r="N61" s="16"/>
-      <c r="O61" s="16"/>
-      <c r="P61" s="16"/>
-      <c r="Q61" s="16"/>
-      <c r="R61" s="16"/>
-      <c r="S61" s="16"/>
-      <c r="T61" s="16"/>
-      <c r="U61" s="16"/>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A62" s="16"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="16"/>
-      <c r="L62" s="16"/>
-      <c r="M62" s="16"/>
-      <c r="N62" s="16"/>
-      <c r="O62" s="16"/>
-      <c r="P62" s="16"/>
-      <c r="Q62" s="16"/>
-      <c r="R62" s="16"/>
-      <c r="S62" s="16"/>
-      <c r="T62" s="16"/>
-      <c r="U62" s="16"/>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A63" s="16"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="16"/>
-      <c r="L63" s="16"/>
-      <c r="M63" s="16"/>
-      <c r="N63" s="16"/>
-      <c r="O63" s="16"/>
-      <c r="P63" s="16"/>
-      <c r="Q63" s="16"/>
-      <c r="R63" s="16"/>
-      <c r="S63" s="16"/>
-      <c r="T63" s="16"/>
-      <c r="U63" s="16"/>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A64" s="16"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="16"/>
-      <c r="K64" s="16"/>
-      <c r="L64" s="16"/>
-      <c r="M64" s="16"/>
-      <c r="N64" s="16"/>
-      <c r="O64" s="16"/>
-      <c r="P64" s="16"/>
-      <c r="Q64" s="16"/>
-      <c r="R64" s="16"/>
-      <c r="S64" s="16"/>
-      <c r="T64" s="16"/>
-      <c r="U64" s="16"/>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A65" s="16"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="16"/>
-      <c r="L65" s="16"/>
-      <c r="M65" s="16"/>
-      <c r="N65" s="16"/>
-      <c r="O65" s="16"/>
-      <c r="P65" s="16"/>
-      <c r="Q65" s="16"/>
-      <c r="R65" s="16"/>
-      <c r="S65" s="16"/>
-      <c r="T65" s="16"/>
-      <c r="U65" s="16"/>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A66" s="16"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="16"/>
-      <c r="K66" s="16"/>
-      <c r="L66" s="16"/>
-      <c r="M66" s="16"/>
-      <c r="N66" s="16"/>
-      <c r="O66" s="16"/>
-      <c r="P66" s="16"/>
-      <c r="Q66" s="16"/>
-      <c r="R66" s="16"/>
-      <c r="S66" s="16"/>
-      <c r="T66" s="16"/>
-      <c r="U66" s="16"/>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A67" s="16"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="16"/>
-      <c r="L67" s="16"/>
-      <c r="M67" s="16"/>
-      <c r="N67" s="16"/>
-      <c r="O67" s="16"/>
-      <c r="P67" s="16"/>
-      <c r="Q67" s="16"/>
-      <c r="R67" s="16"/>
-      <c r="S67" s="16"/>
-      <c r="T67" s="16"/>
-      <c r="U67" s="16"/>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A68" s="16"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="16"/>
-      <c r="K68" s="16"/>
-      <c r="L68" s="16"/>
-      <c r="M68" s="16"/>
-      <c r="N68" s="16"/>
-      <c r="O68" s="16"/>
-      <c r="P68" s="16"/>
-      <c r="Q68" s="16"/>
-      <c r="R68" s="16"/>
-      <c r="S68" s="16"/>
-      <c r="T68" s="16"/>
-      <c r="U68" s="16"/>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A69" s="16"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="16"/>
-      <c r="J69" s="16"/>
-      <c r="K69" s="16"/>
-      <c r="L69" s="16"/>
-      <c r="M69" s="16"/>
-      <c r="N69" s="16"/>
-      <c r="O69" s="16"/>
-      <c r="P69" s="16"/>
-      <c r="Q69" s="16"/>
-      <c r="R69" s="16"/>
-      <c r="S69" s="16"/>
-      <c r="T69" s="16"/>
-      <c r="U69" s="16"/>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A70" s="16"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
-      <c r="J70" s="16"/>
-      <c r="K70" s="16"/>
-      <c r="L70" s="16"/>
-      <c r="M70" s="16"/>
-      <c r="N70" s="16"/>
-      <c r="O70" s="16"/>
-      <c r="P70" s="16"/>
-      <c r="Q70" s="16"/>
-      <c r="R70" s="16"/>
-      <c r="S70" s="16"/>
-      <c r="T70" s="16"/>
-      <c r="U70" s="16"/>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A71" s="16"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="16"/>
-      <c r="L71" s="16"/>
-      <c r="M71" s="16"/>
-      <c r="N71" s="16"/>
-      <c r="O71" s="16"/>
-      <c r="P71" s="16"/>
-      <c r="Q71" s="16"/>
-      <c r="R71" s="16"/>
-      <c r="S71" s="16"/>
-      <c r="T71" s="16"/>
-      <c r="U71" s="16"/>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A72" s="16"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="16"/>
-      <c r="L72" s="16"/>
-      <c r="M72" s="16"/>
-      <c r="N72" s="16"/>
-      <c r="O72" s="16"/>
-      <c r="P72" s="16"/>
-      <c r="Q72" s="16"/>
-      <c r="R72" s="16"/>
-      <c r="S72" s="16"/>
-      <c r="T72" s="16"/>
-      <c r="U72" s="16"/>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A73" s="16"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="16"/>
-      <c r="L73" s="16"/>
-      <c r="M73" s="16"/>
-      <c r="N73" s="16"/>
-      <c r="O73" s="16"/>
-      <c r="P73" s="16"/>
-      <c r="Q73" s="16"/>
-      <c r="R73" s="16"/>
-      <c r="S73" s="16"/>
-      <c r="T73" s="16"/>
-      <c r="U73" s="16"/>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A74" s="16"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="16"/>
-      <c r="K74" s="16"/>
-      <c r="L74" s="16"/>
-      <c r="M74" s="16"/>
-      <c r="N74" s="16"/>
-      <c r="O74" s="16"/>
-      <c r="P74" s="16"/>
-      <c r="Q74" s="16"/>
-      <c r="R74" s="16"/>
-      <c r="S74" s="16"/>
-      <c r="T74" s="16"/>
-      <c r="U74" s="16"/>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A75" s="16"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="16"/>
-      <c r="J75" s="16"/>
-      <c r="K75" s="16"/>
-      <c r="L75" s="16"/>
-      <c r="M75" s="16"/>
-      <c r="N75" s="16"/>
-      <c r="O75" s="16"/>
-      <c r="P75" s="16"/>
-      <c r="Q75" s="16"/>
-      <c r="R75" s="16"/>
-      <c r="S75" s="16"/>
-      <c r="T75" s="16"/>
-      <c r="U75" s="16"/>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A76" s="16"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="16"/>
-      <c r="J76" s="16"/>
-      <c r="K76" s="16"/>
-      <c r="L76" s="16"/>
-      <c r="M76" s="16"/>
-      <c r="N76" s="16"/>
-      <c r="O76" s="16"/>
-      <c r="P76" s="16"/>
-      <c r="Q76" s="16"/>
-      <c r="R76" s="16"/>
-      <c r="S76" s="16"/>
-      <c r="T76" s="16"/>
-      <c r="U76" s="16"/>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A77" s="16"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="16"/>
-      <c r="J77" s="16"/>
-      <c r="K77" s="16"/>
-      <c r="L77" s="16"/>
-      <c r="M77" s="16"/>
-      <c r="N77" s="16"/>
-      <c r="O77" s="16"/>
-      <c r="P77" s="16"/>
-      <c r="Q77" s="16"/>
-      <c r="R77" s="16"/>
-      <c r="S77" s="16"/>
-      <c r="T77" s="16"/>
-      <c r="U77" s="16"/>
+        <v>20500</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C18" s="1"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C19" s="1"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C20" s="1"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C26" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9684,7 +10609,7 @@
     <mergeCell ref="A1:A5"/>
   </mergeCells>
   <conditionalFormatting sqref="C8">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1200000"/>
@@ -9698,11 +10623,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="150000"/>
-        <color theme="8" tint="-0.249977111117893"/>
+        <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
@@ -9712,11 +10637,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="dataBar" priority="12">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="20000"/>
-        <color theme="8" tint="-0.249977111117893"/>
+        <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
@@ -9726,11 +10651,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="dataBar" priority="11">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="90000"/>
-        <color theme="8" tint="-0.249977111117893"/>
+        <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
@@ -9740,11 +10665,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="dataBar" priority="10">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="250000"/>
-        <color theme="8" tint="-0.249977111117893"/>
+        <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
@@ -9754,7 +10679,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="300000"/>
@@ -9768,11 +10693,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="150000"/>
-        <color theme="8" tint="-0.249977111117893"/>
+        <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
@@ -9782,11 +10707,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="20000"/>
-        <color theme="8" tint="-0.249977111117893"/>
+        <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
@@ -9796,11 +10721,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="100000"/>
-        <color theme="8" tint="-0.249977111117893"/>
+        <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
@@ -9810,11 +10735,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="20000"/>
-        <color theme="8" tint="-0.249977111117893"/>
+        <color rgb="FF638EC6"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
@@ -9824,7 +10749,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C17">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9867,14 +10792,16 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C458B8B7-EBB8-4997-8CA5-AEF84320DD50}">
-            <x14:dataBar minLength="0" maxLength="100">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
               </x14:cfvo>
               <x14:cfvo type="num">
                 <xm:f>150000</xm:f>
               </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
@@ -9882,14 +10809,16 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B01F95B4-A11F-4744-91C3-41704D1CD89C}">
-            <x14:dataBar minLength="0" maxLength="100">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
               </x14:cfvo>
               <x14:cfvo type="num">
                 <xm:f>20000</xm:f>
               </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
@@ -9897,14 +10826,16 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A49FFEBA-1DBD-4C3A-82ED-79DB63E02DCD}">
-            <x14:dataBar minLength="0" maxLength="100">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
               </x14:cfvo>
               <x14:cfvo type="num">
                 <xm:f>90000</xm:f>
               </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
@@ -9912,14 +10843,16 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{80E23846-EA48-495A-A4B6-6205EA060027}">
-            <x14:dataBar minLength="0" maxLength="100">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
               </x14:cfvo>
               <x14:cfvo type="num">
                 <xm:f>250000</xm:f>
               </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
@@ -9942,14 +10875,16 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{90F24A94-26DD-4C2B-A141-C86D99E93706}">
-            <x14:dataBar minLength="0" maxLength="100">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
               </x14:cfvo>
               <x14:cfvo type="num">
                 <xm:f>150000</xm:f>
               </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
@@ -9957,14 +10892,16 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BA249281-B717-401C-8040-51BEF1D47352}">
-            <x14:dataBar minLength="0" maxLength="100">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
               </x14:cfvo>
               <x14:cfvo type="num">
                 <xm:f>20000</xm:f>
               </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
@@ -9972,14 +10909,16 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0B4049F4-3D88-49A3-BC10-217B86A8180D}">
-            <x14:dataBar minLength="0" maxLength="100">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
               </x14:cfvo>
               <x14:cfvo type="num">
                 <xm:f>100000</xm:f>
               </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
@@ -9987,14 +10926,16 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AA4ECA2E-8603-4E54-8223-82D5D13F0CF3}">
-            <x14:dataBar minLength="0" maxLength="100">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
               </x14:cfvo>
               <x14:cfvo type="num">
                 <xm:f>20000</xm:f>
               </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
               <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
@@ -10022,4 +10963,266 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF2D8A1-AA46-40B3-B134-F69EB0816122}">
+  <dimension ref="A3:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>